--- a/Pricing Comparison.xlsx
+++ b/Pricing Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8684CC-12EF-4424-8B35-0762DB8F3366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C611BFA-72A9-4F04-B717-1B804EE28968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="8778" activeTab="2" xr2:uid="{95AEE29C-B530-439F-9AAF-6B1221913806}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="8778" activeTab="3" xr2:uid="{95AEE29C-B530-439F-9AAF-6B1221913806}"/>
   </bookViews>
   <sheets>
     <sheet name="March" sheetId="17" r:id="rId1"/>
@@ -11072,7 +11072,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11083,10 +11083,12 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -11283,7 +11285,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11294,10 +11296,12 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -22186,10 +22190,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+        <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E5F79C-74C5-465F-8F61-84913C288B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6890471-2D40-4AD2-8C0A-B3AC68DC06ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22197,18 +22201,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9621944" y="626534"/>
-          <a:ext cx="8780357" cy="4984750"/>
-          <a:chOff x="9621944" y="626534"/>
-          <a:chExt cx="8780357" cy="4984750"/>
+          <a:off x="9630834" y="629074"/>
+          <a:ext cx="8792210" cy="4965277"/>
+          <a:chOff x="9630834" y="629074"/>
+          <a:chExt cx="8792210" cy="4965277"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2">
+          <xdr:cNvPr id="2" name="Group 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2BACE8-2F27-4444-815C-F1A9392B1185}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E5F79C-74C5-465F-8F61-84913C288B01}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22216,39 +22220,97 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="9621944" y="626534"/>
-            <a:ext cx="8780357" cy="4984750"/>
-            <a:chOff x="9599164" y="249794"/>
-            <a:chExt cx="8675793" cy="4607983"/>
+            <a:off x="9630834" y="629074"/>
+            <a:ext cx="8792210" cy="4965277"/>
+            <a:chOff x="9621944" y="626534"/>
+            <a:chExt cx="8780357" cy="4984750"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="3" name="Group 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B4B3BD-686A-4CB0-9020-82BEAAD54852}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2BACE8-2F27-4444-815C-F1A9392B1185}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="9599164" y="249794"/>
-            <a:ext cx="8675793" cy="4607983"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9621944" y="626534"/>
+              <a:ext cx="8780357" cy="4984750"/>
+              <a:chOff x="9599164" y="249794"/>
+              <a:chExt cx="8675793" cy="4607983"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="5" name="Chart 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B4B3BD-686A-4CB0-9020-82BEAAD54852}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="9599164" y="249794"/>
+              <a:ext cx="8675793" cy="4607983"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DAF346-49B2-4CC2-B2B1-FBC9350CDB15}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12077438" y="3993742"/>
+                <a:ext cx="587282" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="9525">
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+            <xdr:cNvPr id="4" name="Straight Connector 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DAF346-49B2-4CC2-B2B1-FBC9350CDB15}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BBD04E-562A-4E1C-8F72-C72F4B3BB601}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22256,25 +22318,30 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12077438" y="3993742"/>
-              <a:ext cx="587282" cy="0"/>
+              <a:off x="12691534" y="1117600"/>
+              <a:ext cx="33866" cy="3831167"/>
             </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
+            <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln w="9525">
-              <a:tailEnd type="triangle"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:lnRef>
             <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="tx1"/>
@@ -22284,41 +22351,36 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Connector 3">
+          <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BBD04E-562A-4E1C-8F72-C72F4B3BB601}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3E6F7F-6B0E-4A70-BD80-CFCC73614A20}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12691534" y="1117600"/>
-            <a:ext cx="33866" cy="3831167"/>
+          <a:xfrm flipH="1">
+            <a:off x="10550738" y="4669367"/>
+            <a:ext cx="613494" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="dash"/>
+          <a:ln w="9525">
+            <a:tailEnd type="triangle"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -22326,59 +22388,6 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579968</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>553382</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173567</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3E6F7F-6B0E-4A70-BD80-CFCC73614A20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10541001" y="4682067"/>
-          <a:ext cx="612648" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24380,8 +24389,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9647344" y="632884"/>
-          <a:ext cx="8809990" cy="4936067"/>
+          <a:off x="9630834" y="629074"/>
+          <a:ext cx="8792210" cy="4965277"/>
           <a:chOff x="9621944" y="626534"/>
           <a:chExt cx="8780357" cy="4984750"/>
         </a:xfrm>
@@ -24847,10 +24856,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+        <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216D50D5-CB63-45ED-B825-8EA1E1735022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D90E4C-A750-40C5-A914-B9F03B81CEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24860,16 +24869,16 @@
         <a:xfrm>
           <a:off x="9630834" y="629074"/>
           <a:ext cx="8792210" cy="4965277"/>
-          <a:chOff x="9621944" y="626534"/>
-          <a:chExt cx="8780357" cy="4984750"/>
+          <a:chOff x="9630834" y="629074"/>
+          <a:chExt cx="8792210" cy="4965277"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2">
+          <xdr:cNvPr id="2" name="Group 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAE150A-CC57-4D27-99CD-1E33E58C0D31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216D50D5-CB63-45ED-B825-8EA1E1735022}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24877,39 +24886,97 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="9621944" y="626534"/>
-            <a:ext cx="8780357" cy="4984750"/>
-            <a:chOff x="9599164" y="249794"/>
-            <a:chExt cx="8675793" cy="4607983"/>
+            <a:off x="9630834" y="629074"/>
+            <a:ext cx="8792210" cy="4965277"/>
+            <a:chOff x="9621944" y="626534"/>
+            <a:chExt cx="8780357" cy="4984750"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="3" name="Group 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEBD078-C0DD-41B2-B778-5466FA6B60F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAE150A-CC57-4D27-99CD-1E33E58C0D31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="9599164" y="249794"/>
-            <a:ext cx="8675793" cy="4607983"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9621944" y="626534"/>
+              <a:ext cx="8780357" cy="4984750"/>
+              <a:chOff x="9599164" y="249794"/>
+              <a:chExt cx="8675793" cy="4607983"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="5" name="Chart 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEBD078-C0DD-41B2-B778-5466FA6B60F0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="9599164" y="249794"/>
+              <a:ext cx="8675793" cy="4607983"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A609D54-7A8D-478C-A372-11D9E42BB67D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12077438" y="3993742"/>
+                <a:ext cx="587282" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="9525">
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+            <xdr:cNvPr id="4" name="Straight Connector 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A609D54-7A8D-478C-A372-11D9E42BB67D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFF7557-C83B-45BA-A9A6-CCF8FDDDE126}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24917,25 +24984,30 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12077438" y="3993742"/>
-              <a:ext cx="587282" cy="0"/>
+              <a:off x="12691534" y="1117600"/>
+              <a:ext cx="33866" cy="3831167"/>
             </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
+            <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln w="9525">
-              <a:tailEnd type="triangle"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:lnRef>
             <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="tx1"/>
@@ -24945,41 +25017,36 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Connector 3">
+          <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFF7557-C83B-45BA-A9A6-CCF8FDDDE126}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4EDD39-7DDC-486D-A5C6-6A43695277E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12691534" y="1117600"/>
-            <a:ext cx="33866" cy="3831167"/>
+          <a:xfrm flipH="1">
+            <a:off x="10550738" y="4669367"/>
+            <a:ext cx="613494" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="dash"/>
+          <a:ln w="9525">
+            <a:tailEnd type="triangle"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -24987,59 +25054,6 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579968</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>553382</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173567</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4EDD39-7DDC-486D-A5C6-6A43695277E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10550738" y="4669367"/>
-          <a:ext cx="613494" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27390,7 +27404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C617531-A22C-4B7C-85B6-96D1CDB79345}">
   <dimension ref="F4:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="K5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
@@ -28174,8 +28188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F814CFE4-F294-4D49-8286-3BA95DA6B8E4}">
   <dimension ref="C4:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -29743,8 +29757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9259AE9-8762-4E72-8C6F-6543C5D1ECE1}">
   <dimension ref="F4:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
